--- a/Extraction Sherpa.xlsx
+++ b/Extraction Sherpa.xlsx
@@ -678,8 +678,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +823,7 @@
     &lt;licence&gt;SHERPA/RoMEO data is available for re-use under a Creative Commons Attribution-Non-Commercial-Share Alike 2.5 licence. For more details, please see the 'conditions for re-use' at the &amp;lt;licenceurl /&amp;gt;, and linked-to from the SHERPA/RoMEO home page.&lt;/licence&gt;
     &lt;licenceurl&gt;http://www.sherpa.ac.uk/romeoreuse.html&lt;/licenceurl&gt;
     &lt;disclaimer&gt;All SHERPA/RoMEO information is correct to the best of our knowledge but should not be relied upon for legal advice. SHERPA cannot be held responsible for the re-use of RoMEO data, or for alternative interpretations which are derived from this information.&lt;/disclaimer&gt;
-    &lt;timestamp&gt;29-May-2018:16:31:42&lt;/timestamp&gt;
+    &lt;timestamp&gt;30-May-2018:08:06:30&lt;/timestamp&gt;
   &lt;/header&gt;
   &lt;journals /&gt;
   &lt;publishers /&gt;
@@ -857,7 +859,7 @@
     &lt;licence&gt;SHERPA/RoMEO data is available for re-use under a Creative Commons Attribution-Non-Commercial-Share Alike 2.5 licence. For more details, please see the 'conditions for re-use' at the &amp;lt;licenceurl /&amp;gt;, and linked-to from the SHERPA/RoMEO home page.&lt;/licence&gt;
     &lt;licenceurl&gt;http://www.sherpa.ac.uk/romeoreuse.html&lt;/licenceurl&gt;
     &lt;disclaimer&gt;All SHERPA/RoMEO information is correct to the best of our knowledge but should not be relied upon for legal advice. SHERPA cannot be held responsible for the re-use of RoMEO data, or for alternative interpretations which are derived from this information.&lt;/disclaimer&gt;
-    &lt;timestamp&gt;29-May-2018:16:31:42&lt;/timestamp&gt;
+    &lt;timestamp&gt;30-May-2018:08:06:30&lt;/timestamp&gt;
   &lt;/header&gt;
   &lt;journals /&gt;
   &lt;publishers /&gt;
@@ -1010,7 +1012,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
